--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_77.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_77.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5588</v>
+        <v>3.0014</v>
       </c>
       <c r="J3" t="n">
-        <v>27.88</v>
+        <v>27.78</v>
       </c>
       <c r="K3" t="n">
-        <v>1280.81</v>
+        <v>1496.86</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>2.97</v>
       </c>
       <c r="R3" t="n">
-        <v>1310.6142</v>
+        <v>1573.622</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2947</v>
+        <v>2.758</v>
       </c>
       <c r="J4" t="n">
-        <v>2.89</v>
+        <v>18.37</v>
       </c>
       <c r="K4" t="n">
-        <v>118.95</v>
+        <v>909.77</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R4" t="n">
-        <v>1156.1498</v>
+        <v>1390.1693</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>11.4822</v>
+        <v>13.6437</v>
       </c>
       <c r="J5" t="n">
-        <v>27.21</v>
+        <v>27.53</v>
       </c>
       <c r="K5" t="n">
-        <v>5608.82</v>
+        <v>6743.77</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>10.94</v>
+        <v>11.16</v>
       </c>
       <c r="R5" t="n">
-        <v>4831.9018</v>
+        <v>5908.8266</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>13.7218</v>
+        <v>16.0979</v>
       </c>
       <c r="J6" t="n">
-        <v>28.59</v>
+        <v>28.67</v>
       </c>
       <c r="K6" t="n">
-        <v>7044.06</v>
+        <v>8286.01</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>9.23</v>
+        <v>9.06</v>
       </c>
       <c r="R6" t="n">
-        <v>4074.7664</v>
+        <v>4795.6074</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>5.8358</v>
+        <v>6.869</v>
       </c>
       <c r="J7" t="n">
-        <v>33.38</v>
+        <v>33.03</v>
       </c>
       <c r="K7" t="n">
-        <v>3497.38</v>
+        <v>4073.88</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>6.32</v>
+        <v>6.18</v>
       </c>
       <c r="R7" t="n">
-        <v>2792.242</v>
+        <v>3272.738</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>68.1054</v>
+        <v>82.1087</v>
       </c>
       <c r="J8" t="n">
-        <v>4.44</v>
+        <v>4.42</v>
       </c>
       <c r="K8" t="n">
-        <v>5422.98</v>
+        <v>6519.53</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>11.95</v>
+        <v>12.05</v>
       </c>
       <c r="R8" t="n">
-        <v>5275.0332</v>
+        <v>6378.6923</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1001,16 +1001,16 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I9" t="n">
-        <v>15.0931</v>
+        <v>20.4215</v>
       </c>
       <c r="J9" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="K9" t="n">
-        <v>533.58</v>
+        <v>660.4400000000001</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="R9" t="n">
-        <v>430.6469</v>
+        <v>507.3181</v>
       </c>
     </row>
   </sheetData>
